--- a/data/metadata_energy.xlsx
+++ b/data/metadata_energy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esicedu-my.sharepoint.com/personal/pablo_navarro_esic_university/Documents/Modelización de variables categóricas/Repo/Modelizacion-variables-categoricas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F8CAD53-BD14-4993-B60F-809561FF2975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6F8CAD53-BD14-4993-B60F-809561FF2975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC751BE6-8075-43FE-BD3F-B5548607F8F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F2CFAC5-2D8E-4F27-BBA6-F810A8FB91CB}"/>
   </bookViews>
@@ -242,28 +242,28 @@
     <t>Humedad en la habitación de los padres, en %</t>
   </si>
   <si>
-    <t>Temperatura exterior (desde la estación meteorológica de Chievres), en Celsius</t>
-  </si>
-  <si>
-    <t>Presión (desde la estación meteorológica de Chievres), en mm Hg</t>
-  </si>
-  <si>
-    <t>Humedad exterior (desde la estación meteorológica de Chievres), en %</t>
-  </si>
-  <si>
-    <t>Velocidad del viento (desde la estación meteorológica de Chievres), en m/s</t>
-  </si>
-  <si>
-    <t>Visibilidad (desde la estación meteorológica de Chievres), en km</t>
-  </si>
-  <si>
-    <t>Punto de rocío (desde la estación meteorológica de Chievres), Â°C</t>
-  </si>
-  <si>
     <t>Variable aleatoria 1, no dimensional</t>
   </si>
   <si>
     <t>Variable aleatoria 2, no dimensional</t>
+  </si>
+  <si>
+    <t>Punto de rocío, Â°C</t>
+  </si>
+  <si>
+    <t>Temperatura exterior, en Celsius</t>
+  </si>
+  <si>
+    <t>Presión, en mm Hg</t>
+  </si>
+  <si>
+    <t>Humedad exterior, en %</t>
+  </si>
+  <si>
+    <t>Velocidad del viento, en m/s</t>
+  </si>
+  <si>
+    <t>Visibilidad, en km</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
